--- a/resources/data-definition/CDS/SubjectPhenotypes_DD.xlsx
+++ b/resources/data-definition/CDS/SubjectPhenotypes_DD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gup2/workspace/vscode/crdcdh/crdc-datahub-backend/resources/data-definition/CDS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9D7A3F-05EF-9046-BB67-46C88B28BCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA2CC4D-7B21-2C45-8BBE-A03F21C47ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="4300" windowWidth="25800" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7540" yWindow="7280" windowWidth="25800" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SubjectPhenotypes_DD" sheetId="1" r:id="rId1"/>
@@ -450,7 +450,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/resources/data-definition/CDS/SubjectPhenotypes_DD.xlsx
+++ b/resources/data-definition/CDS/SubjectPhenotypes_DD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gup2/workspace/vscode/crdcdh/crdc-datahub-backend/resources/data-definition/CDS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA2CC4D-7B21-2C45-8BBE-A03F21C47ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F08B7D-4CAE-9248-9315-C32D5B7D0A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7540" yWindow="7280" windowWidth="25800" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7540" yWindow="6900" windowWidth="25800" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SubjectPhenotypes_DD" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>VARNAME</t>
   </si>
@@ -57,28 +57,13 @@
     <t>VALUES</t>
   </si>
   <si>
-    <t>SUBJECT_ID</t>
-  </si>
-  <si>
-    <t>AFFECTION_STATUS</t>
-  </si>
-  <si>
-    <t>RACE</t>
-  </si>
-  <si>
-    <t>EDUCATION</t>
-  </si>
-  <si>
-    <t>AGE</t>
-  </si>
-  <si>
-    <t>AGE_ONSET</t>
-  </si>
-  <si>
-    <t>HEIGHT</t>
-  </si>
-  <si>
-    <t>WEIGHT</t>
+    <t>study_participant_id</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>age_at_diagnosis</t>
   </si>
 </sst>
 </file>
@@ -447,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -505,48 +490,38 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
@@ -555,34 +530,19 @@
       <c r="A11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
+      <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
+      <c r="A16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/resources/data-definition/CDS/SubjectPhenotypes_DD.xlsx
+++ b/resources/data-definition/CDS/SubjectPhenotypes_DD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gup2/workspace/vscode/crdcdh/crdc-datahub-backend/resources/data-definition/CDS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F08B7D-4CAE-9248-9315-C32D5B7D0A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942A4D4B-6997-8A49-A8FB-74FFAB9C820C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7540" yWindow="6900" windowWidth="25800" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,13 +57,13 @@
     <t>VALUES</t>
   </si>
   <si>
-    <t>study_participant_id</t>
-  </si>
-  <si>
     <t>race</t>
   </si>
   <si>
     <t>age_at_diagnosis</t>
+  </si>
+  <si>
+    <t>participant_id</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -477,7 +477,7 @@
     </row>
     <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -488,7 +488,7 @@
     </row>
     <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
